--- a/colbert/output/Results_colbert_max_ingredients_bm25_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_max_ingredients_bm25_extraQuestions.xlsx
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>109439</v>
+        <v>84797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>84797</v>
+        <v>109439</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62368</v>
+        <v>42522</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42522</v>
+        <v>62368</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>93249</v>
+        <v>76808</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>76808</v>
+        <v>93249</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42522</v>
+        <v>112959</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1377,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24701</v>
+        <v>76808</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>76808</v>
+        <v>24701</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1427,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>93249</v>
+        <v>74805</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>74805</v>
+        <v>93249</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -1752,11 +1752,11 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>109439</v>
+        <v>84797</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>84797</v>
+        <v>109439</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -1802,11 +1802,11 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>62368</v>
+        <v>42522</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -1827,11 +1827,11 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>42522</v>
+        <v>62368</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -2777,11 +2777,11 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>32271</v>
+        <v>62368</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -2802,11 +2802,11 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>62368</v>
+        <v>32271</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>one pot  brownies</t>
         </is>
       </c>
     </row>
@@ -2852,11 +2852,11 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>58651</v>
+        <v>62368</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -2877,11 +2877,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>62368</v>
+        <v>58651</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -4102,11 +4102,11 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>19208</v>
+        <v>63593</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -4127,11 +4127,11 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>63593</v>
+        <v>19208</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>red hot  applesauce</t>
         </is>
       </c>
     </row>
@@ -4527,11 +4527,11 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>19208</v>
+        <v>63593</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>red hot  applesauce</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -4552,11 +4552,11 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>63593</v>
+        <v>19208</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>red hot  applesauce</t>
         </is>
       </c>
     </row>
@@ -5477,11 +5477,11 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>39363</v>
+        <v>83062</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -5502,11 +5502,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>83062</v>
+        <v>39363</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -5677,11 +5677,11 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>107699</v>
+        <v>39363</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -5702,11 +5702,11 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>39363</v>
+        <v>107699</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -5827,11 +5827,11 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>93958</v>
+        <v>39363</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -5927,11 +5927,11 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -5952,11 +5952,11 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>75452</v>
+        <v>39363</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6577,11 +6577,11 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>47366</v>
+        <v>38276</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -6802,11 +6802,11 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>24701</v>
+        <v>35964</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>112959</v>
+        <v>24701</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -6927,11 +6927,11 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>90921</v>
+        <v>39363</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -6952,11 +6952,11 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>24701</v>
+        <v>62368</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -7327,11 +7327,11 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>47366</v>
+        <v>38276</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -8127,11 +8127,11 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>32271</v>
+        <v>83025</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>one pot  brownies</t>
+          <t>jeanne s style  birthday cake</t>
         </is>
       </c>
     </row>
@@ -8152,11 +8152,11 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>58651</v>
+        <v>35964</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -8177,11 +8177,11 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>83025</v>
+        <v>32271</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>jeanne s style  birthday cake</t>
+          <t>one pot  brownies</t>
         </is>
       </c>
     </row>
@@ -8202,11 +8202,11 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>35964</v>
+        <v>58651</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -8327,11 +8327,11 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>71635</v>
+        <v>52804</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -8427,11 +8427,11 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>71635</v>
+        <v>52804</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -8452,11 +8452,11 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>52804</v>
+        <v>71635</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -8527,11 +8527,11 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>42522</v>
+        <v>52804</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -8552,11 +8552,11 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>52804</v>
+        <v>42522</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -8577,11 +8577,11 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>58651</v>
+        <v>83025</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>jeanne s style  birthday cake</t>
         </is>
       </c>
     </row>
@@ -8602,11 +8602,11 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>58651</v>
+        <v>62368</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>turtle  squares</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -8627,11 +8627,11 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>39363</v>
+        <v>58651</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>turtle  squares</t>
         </is>
       </c>
     </row>
@@ -8652,11 +8652,11 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -9252,11 +9252,11 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -9277,11 +9277,11 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -9527,11 +9527,11 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>71635</v>
+        <v>62368</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -9552,11 +9552,11 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>49262</v>
+        <v>71635</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -9577,11 +9577,11 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>62368</v>
+        <v>49262</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>easiest ever  hollandaise sauce</t>
         </is>
       </c>
     </row>
@@ -9877,11 +9877,11 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>84797</v>
+        <v>62368</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -9902,11 +9902,11 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>62368</v>
+        <v>84797</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -10002,11 +10002,11 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -10027,11 +10027,11 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -10702,11 +10702,11 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>42570</v>
+        <v>41756</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -11452,11 +11452,11 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>42570</v>
+        <v>41756</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -12027,11 +12027,11 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>59952</v>
+        <v>112140</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -12277,11 +12277,11 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>99024</v>
+        <v>93249</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -12302,11 +12302,11 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>107699</v>
+        <v>58224</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -12327,11 +12327,11 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>93249</v>
+        <v>99024</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>grilled  ranch bread</t>
+          <t>smoked  salmon  cracker spread</t>
         </is>
       </c>
     </row>
@@ -12377,11 +12377,11 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>62368</v>
+        <v>54100</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -12402,11 +12402,11 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>71635</v>
+        <v>33606</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -12427,11 +12427,11 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>54100</v>
+        <v>62368</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -12452,11 +12452,11 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>99024</v>
+        <v>109439</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>smoked  salmon  cracker spread</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -12627,11 +12627,11 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>83133</v>
+        <v>58224</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -12652,11 +12652,11 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>58224</v>
+        <v>109439</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -12677,11 +12677,11 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>109439</v>
+        <v>83133</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -12777,11 +12777,11 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>59952</v>
+        <v>112140</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -12827,11 +12827,11 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>42522</v>
+        <v>59952</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -12902,11 +12902,11 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -12927,11 +12927,11 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -12952,11 +12952,11 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -13627,11 +13627,11 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>83133</v>
+        <v>87098</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -13652,11 +13652,11 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>87098</v>
+        <v>83133</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -13702,11 +13702,11 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -13752,11 +13752,11 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>100870</v>
+        <v>25775</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -13777,11 +13777,11 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>35173</v>
+        <v>100870</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>leftovers  spaghetti sauce</t>
         </is>
       </c>
     </row>
@@ -13802,11 +13802,11 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>107699</v>
+        <v>35173</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -13827,11 +13827,11 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>35653</v>
+        <v>107699</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -13977,11 +13977,11 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>93958</v>
+        <v>25775</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -14002,11 +14002,11 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>25775</v>
+        <v>93958</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>i yam what i yam  muffins</t>
         </is>
       </c>
     </row>
@@ -14277,11 +14277,11 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -15027,11 +15027,11 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -15427,11 +15427,11 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>35653</v>
+        <v>25775</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -15452,11 +15452,11 @@
         </is>
       </c>
       <c r="D601" t="n">
-        <v>83133</v>
+        <v>35653</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -15627,11 +15627,11 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -15702,11 +15702,11 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -16177,11 +16177,11 @@
         </is>
       </c>
       <c r="D630" t="n">
-        <v>52804</v>
+        <v>74805</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -16202,11 +16202,11 @@
         </is>
       </c>
       <c r="D631" t="n">
-        <v>74805</v>
+        <v>52804</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -16352,11 +16352,11 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>22123</v>
+        <v>63593</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>i don t feel like cooking tonight  casserole</t>
+          <t>more  more    apple pear jigglers</t>
         </is>
       </c>
     </row>
@@ -16377,11 +16377,11 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>58224</v>
+        <v>22123</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>i don t feel like cooking tonight  casserole</t>
         </is>
       </c>
     </row>
@@ -16402,11 +16402,11 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -16427,11 +16427,11 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>63593</v>
+        <v>39959</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>more  more    apple pear jigglers</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -16452,11 +16452,11 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -16502,11 +16502,11 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>35964</v>
+        <v>25775</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -16527,11 +16527,11 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>39959</v>
+        <v>35964</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -16552,11 +16552,11 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>76808</v>
+        <v>39959</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>cream  of spinach soup</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -16577,11 +16577,11 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>32169</v>
+        <v>76808</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>cream  of spinach soup</t>
         </is>
       </c>
     </row>
@@ -16927,11 +16927,11 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>52804</v>
+        <v>74805</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -16952,11 +16952,11 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>74805</v>
+        <v>52804</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -17502,11 +17502,11 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -17527,11 +17527,11 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>75452</v>
+        <v>83062</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -17552,11 +17552,11 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>95926</v>
+        <v>39363</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -17577,11 +17577,11 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>83062</v>
+        <v>95926</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -18252,11 +18252,11 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -18277,11 +18277,11 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>75452</v>
+        <v>83062</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -18302,11 +18302,11 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>95926</v>
+        <v>39363</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -18327,11 +18327,11 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>83062</v>
+        <v>95926</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -19477,11 +19477,11 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>83133</v>
+        <v>83873</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -19502,11 +19502,11 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>83873</v>
+        <v>83133</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -21677,11 +21677,11 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>44123</v>
+        <v>59952</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -21702,11 +21702,11 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>59952</v>
+        <v>44123</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>george s at the cove  black bean soup</t>
         </is>
       </c>
     </row>
@@ -22427,11 +22427,11 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>44123</v>
+        <v>59952</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -22452,11 +22452,11 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>59952</v>
+        <v>44123</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>george s at the cove  black bean soup</t>
         </is>
       </c>
     </row>
@@ -24377,11 +24377,11 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>8559</v>
+        <v>38276</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -24427,11 +24427,11 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>64045</v>
+        <v>67888</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>backyard style  barbecued ribs</t>
         </is>
       </c>
     </row>
@@ -24452,11 +24452,11 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>67888</v>
+        <v>64045</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
-          <t>backyard style  barbecued ribs</t>
+          <t>some like it hot</t>
         </is>
       </c>
     </row>
@@ -24777,11 +24777,11 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>35653</v>
+        <v>63793</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -24802,11 +24802,11 @@
         </is>
       </c>
       <c r="D975" t="n">
-        <v>63793</v>
+        <v>35653</v>
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -24827,11 +24827,11 @@
         </is>
       </c>
       <c r="D976" t="n">
-        <v>84797</v>
+        <v>108804</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>put down your fork   tuna and bean salad</t>
         </is>
       </c>
     </row>
@@ -24952,11 +24952,11 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>54100</v>
+        <v>90921</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -25027,11 +25027,11 @@
         </is>
       </c>
       <c r="D984" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -25052,11 +25052,11 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>25775</v>
+        <v>32169</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -25077,11 +25077,11 @@
         </is>
       </c>
       <c r="D986" t="n">
-        <v>84797</v>
+        <v>64302</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -25127,11 +25127,11 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>8559</v>
+        <v>90921</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -25152,11 +25152,11 @@
         </is>
       </c>
       <c r="D989" t="n">
-        <v>30131</v>
+        <v>38276</v>
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -25177,11 +25177,11 @@
         </is>
       </c>
       <c r="D990" t="n">
-        <v>64045</v>
+        <v>30131</v>
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -25752,11 +25752,11 @@
         </is>
       </c>
       <c r="D1013" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -25777,11 +25777,11 @@
         </is>
       </c>
       <c r="D1014" t="n">
-        <v>42570</v>
+        <v>58224</v>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -26502,11 +26502,11 @@
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -26527,11 +26527,11 @@
         </is>
       </c>
       <c r="D1044" t="n">
-        <v>42570</v>
+        <v>58224</v>
       </c>
       <c r="E1044" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -27852,11 +27852,11 @@
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>83950</v>
+        <v>90921</v>
       </c>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>real  italian bolognese sauce</t>
+          <t>i stole the idea from mirj  sesame noodles</t>
         </is>
       </c>
     </row>
@@ -27877,11 +27877,11 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>33165</v>
+        <v>83950</v>
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>i can t believe it s low fat  creamy potato salad</t>
+          <t>real  italian bolognese sauce</t>
         </is>
       </c>
     </row>
@@ -27902,11 +27902,11 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>111875</v>
+        <v>33165</v>
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>i can t believe it s low fat  creamy potato salad</t>
         </is>
       </c>
     </row>
@@ -27927,11 +27927,11 @@
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>23850</v>
+        <v>111875</v>
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -27952,11 +27952,11 @@
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>90921</v>
+        <v>23850</v>
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -28952,11 +28952,11 @@
         </is>
       </c>
       <c r="D1141" t="n">
-        <v>100870</v>
+        <v>25775</v>
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>leftovers  spaghetti sauce</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -29177,11 +29177,11 @@
         </is>
       </c>
       <c r="D1150" t="n">
-        <v>47366</v>
+        <v>25775</v>
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -29202,11 +29202,11 @@
         </is>
       </c>
       <c r="D1151" t="n">
-        <v>35595</v>
+        <v>47366</v>
       </c>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -30152,11 +30152,11 @@
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>95926</v>
+        <v>63793</v>
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -30177,11 +30177,11 @@
         </is>
       </c>
       <c r="D1190" t="n">
-        <v>63793</v>
+        <v>95926</v>
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -30227,11 +30227,11 @@
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>35173</v>
+        <v>63793</v>
       </c>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -30252,11 +30252,11 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>39959</v>
+        <v>87098</v>
       </c>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -30277,11 +30277,11 @@
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>95926</v>
+        <v>35173</v>
       </c>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -30302,11 +30302,11 @@
         </is>
       </c>
       <c r="D1195" t="n">
-        <v>87098</v>
+        <v>39959</v>
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -30327,11 +30327,11 @@
         </is>
       </c>
       <c r="D1196" t="n">
-        <v>63793</v>
+        <v>95926</v>
       </c>
       <c r="E1196" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -30502,11 +30502,11 @@
         </is>
       </c>
       <c r="D1203" t="n">
-        <v>107517</v>
+        <v>87098</v>
       </c>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>boat house  collard greens</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -30527,11 +30527,11 @@
         </is>
       </c>
       <c r="D1204" t="n">
-        <v>87098</v>
+        <v>107517</v>
       </c>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>boat house  collard greens</t>
         </is>
       </c>
     </row>
@@ -30627,11 +30627,11 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>23850</v>
+        <v>93958</v>
       </c>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>i yam what i yam  muffins</t>
         </is>
       </c>
     </row>
@@ -30677,11 +30677,11 @@
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>93958</v>
+        <v>23850</v>
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -30802,11 +30802,11 @@
         </is>
       </c>
       <c r="D1215" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -30827,11 +30827,11 @@
         </is>
       </c>
       <c r="D1216" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -31502,11 +31502,11 @@
         </is>
       </c>
       <c r="D1243" t="n">
-        <v>111875</v>
+        <v>112959</v>
       </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -31527,11 +31527,11 @@
         </is>
       </c>
       <c r="D1244" t="n">
-        <v>112959</v>
+        <v>111875</v>
       </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -31552,11 +31552,11 @@
         </is>
       </c>
       <c r="D1245" t="n">
-        <v>25274</v>
+        <v>23850</v>
       </c>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -31677,11 +31677,11 @@
         </is>
       </c>
       <c r="D1250" t="n">
-        <v>25274</v>
+        <v>25775</v>
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -31702,11 +31702,11 @@
         </is>
       </c>
       <c r="D1251" t="n">
-        <v>25775</v>
+        <v>24701</v>
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -31902,11 +31902,11 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>30300</v>
+        <v>25775</v>
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -31927,11 +31927,11 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>42522</v>
+        <v>30300</v>
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -31952,11 +31952,11 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>25775</v>
+        <v>42522</v>
       </c>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -32627,11 +32627,11 @@
         </is>
       </c>
       <c r="D1288" t="n">
-        <v>64302</v>
+        <v>83133</v>
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -32652,11 +32652,11 @@
         </is>
       </c>
       <c r="D1289" t="n">
-        <v>83133</v>
+        <v>64302</v>
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -33052,11 +33052,11 @@
         </is>
       </c>
       <c r="D1305" t="n">
-        <v>60219</v>
+        <v>87098</v>
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -33077,11 +33077,11 @@
         </is>
       </c>
       <c r="D1306" t="n">
-        <v>32169</v>
+        <v>25775</v>
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -33377,11 +33377,11 @@
         </is>
       </c>
       <c r="D1318" t="n">
-        <v>64302</v>
+        <v>83133</v>
       </c>
       <c r="E1318" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -33402,11 +33402,11 @@
         </is>
       </c>
       <c r="D1319" t="n">
-        <v>83133</v>
+        <v>84797</v>
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -33427,11 +33427,11 @@
         </is>
       </c>
       <c r="D1320" t="n">
-        <v>84797</v>
+        <v>64302</v>
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -33452,11 +33452,11 @@
         </is>
       </c>
       <c r="D1321" t="n">
-        <v>62368</v>
+        <v>108414</v>
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>jiffy  roasted corn and jalapeno cornbread</t>
         </is>
       </c>
     </row>
@@ -34302,11 +34302,11 @@
         </is>
       </c>
       <c r="D1355" t="n">
-        <v>32169</v>
+        <v>59952</v>
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -34327,11 +34327,11 @@
         </is>
       </c>
       <c r="D1356" t="n">
-        <v>59534</v>
+        <v>32169</v>
       </c>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -34377,11 +34377,11 @@
         </is>
       </c>
       <c r="D1358" t="n">
-        <v>25775</v>
+        <v>59952</v>
       </c>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -34402,11 +34402,11 @@
         </is>
       </c>
       <c r="D1359" t="n">
-        <v>32169</v>
+        <v>25775</v>
       </c>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -34427,11 +34427,11 @@
         </is>
       </c>
       <c r="D1360" t="n">
-        <v>59952</v>
+        <v>32169</v>
       </c>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -34577,11 +34577,11 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>32169</v>
+        <v>59952</v>
       </c>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -35602,11 +35602,11 @@
         </is>
       </c>
       <c r="D1407" t="n">
-        <v>59534</v>
+        <v>23850</v>
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -35627,11 +35627,11 @@
         </is>
       </c>
       <c r="D1408" t="n">
-        <v>23850</v>
+        <v>137739</v>
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -35652,11 +35652,11 @@
         </is>
       </c>
       <c r="D1409" t="n">
-        <v>137739</v>
+        <v>59534</v>
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -35777,11 +35777,11 @@
         </is>
       </c>
       <c r="D1414" t="n">
-        <v>49262</v>
+        <v>137739</v>
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -35802,11 +35802,11 @@
         </is>
       </c>
       <c r="D1415" t="n">
-        <v>23850</v>
+        <v>87098</v>
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -35827,11 +35827,11 @@
         </is>
       </c>
       <c r="D1416" t="n">
-        <v>44123</v>
+        <v>23850</v>
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -35877,11 +35877,11 @@
         </is>
       </c>
       <c r="D1418" t="n">
-        <v>83873</v>
+        <v>137739</v>
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -35902,11 +35902,11 @@
         </is>
       </c>
       <c r="D1419" t="n">
-        <v>137739</v>
+        <v>41756</v>
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -35927,11 +35927,11 @@
         </is>
       </c>
       <c r="D1420" t="n">
-        <v>41756</v>
+        <v>83873</v>
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -35977,11 +35977,11 @@
         </is>
       </c>
       <c r="D1422" t="n">
-        <v>109439</v>
+        <v>137739</v>
       </c>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -36027,11 +36027,11 @@
         </is>
       </c>
       <c r="D1424" t="n">
-        <v>137739</v>
+        <v>109439</v>
       </c>
       <c r="E1424" t="inlineStr">
         <is>
-          <t>arriba   baked winter squash mexican style</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -36077,11 +36077,11 @@
         </is>
       </c>
       <c r="D1426" t="n">
-        <v>48156</v>
+        <v>93959</v>
       </c>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>emotional balance  spice mixture</t>
+          <t>i yam what i yam two  muffins</t>
         </is>
       </c>
     </row>
@@ -36202,11 +36202,11 @@
         </is>
       </c>
       <c r="D1431" t="n">
-        <v>60219</v>
+        <v>41756</v>
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -36977,11 +36977,11 @@
         </is>
       </c>
       <c r="D1462" t="n">
-        <v>107229</v>
+        <v>83873</v>
       </c>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -37002,11 +37002,11 @@
         </is>
       </c>
       <c r="D1463" t="n">
-        <v>83873</v>
+        <v>107229</v>
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -37027,11 +37027,11 @@
         </is>
       </c>
       <c r="D1464" t="n">
-        <v>54272</v>
+        <v>63986</v>
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>chicken lickin  good  pork chops</t>
         </is>
       </c>
     </row>
@@ -37052,11 +37052,11 @@
         </is>
       </c>
       <c r="D1465" t="n">
-        <v>63986</v>
+        <v>98930</v>
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>chicken lickin  good  pork chops</t>
+          <t>steamed  chicken cutlets in packages</t>
         </is>
       </c>
     </row>
@@ -37077,11 +37077,11 @@
         </is>
       </c>
       <c r="D1466" t="n">
-        <v>98930</v>
+        <v>54272</v>
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>steamed  chicken cutlets in packages</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -37102,11 +37102,11 @@
         </is>
       </c>
       <c r="D1467" t="n">
-        <v>42570</v>
+        <v>83873</v>
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>crispy crunchy  chicken</t>
         </is>
       </c>
     </row>
@@ -37127,11 +37127,11 @@
         </is>
       </c>
       <c r="D1468" t="n">
-        <v>83873</v>
+        <v>42570</v>
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>crispy crunchy  chicken</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -37202,11 +37202,11 @@
         </is>
       </c>
       <c r="D1471" t="n">
-        <v>44123</v>
+        <v>32169</v>
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -37452,11 +37452,11 @@
         </is>
       </c>
       <c r="D1481" t="n">
-        <v>48156</v>
+        <v>32169</v>
       </c>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>emotional balance  spice mixture</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -38127,11 +38127,11 @@
         </is>
       </c>
       <c r="D1508" t="n">
-        <v>53402</v>
+        <v>32169</v>
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -38152,11 +38152,11 @@
         </is>
       </c>
       <c r="D1509" t="n">
-        <v>32169</v>
+        <v>53402</v>
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -38177,11 +38177,11 @@
         </is>
       </c>
       <c r="D1510" t="n">
-        <v>47366</v>
+        <v>94710</v>
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>italian  fries</t>
         </is>
       </c>
     </row>
@@ -38202,11 +38202,11 @@
         </is>
       </c>
       <c r="D1511" t="n">
-        <v>94710</v>
+        <v>47366</v>
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -38877,11 +38877,11 @@
         </is>
       </c>
       <c r="D1538" t="n">
-        <v>53402</v>
+        <v>32169</v>
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -38902,11 +38902,11 @@
         </is>
       </c>
       <c r="D1539" t="n">
-        <v>32169</v>
+        <v>53402</v>
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -38927,11 +38927,11 @@
         </is>
       </c>
       <c r="D1540" t="n">
-        <v>47366</v>
+        <v>94710</v>
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>italian  fries</t>
         </is>
       </c>
     </row>
@@ -38952,11 +38952,11 @@
         </is>
       </c>
       <c r="D1541" t="n">
-        <v>94710</v>
+        <v>47366</v>
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -41152,11 +41152,11 @@
         </is>
       </c>
       <c r="D1629" t="n">
-        <v>95926</v>
+        <v>30300</v>
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -41202,11 +41202,11 @@
         </is>
       </c>
       <c r="D1631" t="n">
-        <v>30300</v>
+        <v>95926</v>
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -41227,11 +41227,11 @@
         </is>
       </c>
       <c r="D1632" t="n">
-        <v>83062</v>
+        <v>30300</v>
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -41252,11 +41252,11 @@
         </is>
       </c>
       <c r="D1633" t="n">
-        <v>30300</v>
+        <v>83062</v>
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -41327,11 +41327,11 @@
         </is>
       </c>
       <c r="D1636" t="n">
-        <v>26995</v>
+        <v>75452</v>
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -41352,11 +41352,11 @@
         </is>
       </c>
       <c r="D1637" t="n">
-        <v>107699</v>
+        <v>30300</v>
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -41377,11 +41377,11 @@
         </is>
       </c>
       <c r="D1638" t="n">
-        <v>30300</v>
+        <v>107699</v>
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -42252,11 +42252,11 @@
         </is>
       </c>
       <c r="D1673" t="n">
-        <v>112140</v>
+        <v>59534</v>
       </c>
       <c r="E1673" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -42277,11 +42277,11 @@
         </is>
       </c>
       <c r="D1674" t="n">
-        <v>59534</v>
+        <v>41756</v>
       </c>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -42302,11 +42302,11 @@
         </is>
       </c>
       <c r="D1675" t="n">
-        <v>41756</v>
+        <v>112140</v>
       </c>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -42577,11 +42577,11 @@
         </is>
       </c>
       <c r="D1686" t="n">
-        <v>95926</v>
+        <v>67664</v>
       </c>
       <c r="E1686" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>healthy for them  yogurt popsicles</t>
         </is>
       </c>
     </row>
@@ -43002,11 +43002,11 @@
         </is>
       </c>
       <c r="D1703" t="n">
-        <v>112140</v>
+        <v>59534</v>
       </c>
       <c r="E1703" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -43027,11 +43027,11 @@
         </is>
       </c>
       <c r="D1704" t="n">
-        <v>59534</v>
+        <v>41756</v>
       </c>
       <c r="E1704" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -43052,11 +43052,11 @@
         </is>
       </c>
       <c r="D1705" t="n">
-        <v>41756</v>
+        <v>112140</v>
       </c>
       <c r="E1705" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -43977,11 +43977,11 @@
         </is>
       </c>
       <c r="D1742" t="n">
-        <v>42570</v>
+        <v>112959</v>
       </c>
       <c r="E1742" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -44002,11 +44002,11 @@
         </is>
       </c>
       <c r="D1743" t="n">
-        <v>112959</v>
+        <v>24701</v>
       </c>
       <c r="E1743" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -44027,11 +44027,11 @@
         </is>
       </c>
       <c r="D1744" t="n">
-        <v>54100</v>
+        <v>31490</v>
       </c>
       <c r="E1744" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -44052,11 +44052,11 @@
         </is>
       </c>
       <c r="D1745" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E1745" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -44077,11 +44077,11 @@
         </is>
       </c>
       <c r="D1746" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E1746" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -45627,11 +45627,11 @@
         </is>
       </c>
       <c r="D1808" t="n">
-        <v>31490</v>
+        <v>25775</v>
       </c>
       <c r="E1808" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -45652,11 +45652,11 @@
         </is>
       </c>
       <c r="D1809" t="n">
-        <v>108414</v>
+        <v>31490</v>
       </c>
       <c r="E1809" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -45677,11 +45677,11 @@
         </is>
       </c>
       <c r="D1810" t="n">
-        <v>42522</v>
+        <v>108414</v>
       </c>
       <c r="E1810" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>jiffy  roasted corn and jalapeno cornbread</t>
         </is>
       </c>
     </row>
@@ -45702,11 +45702,11 @@
         </is>
       </c>
       <c r="D1811" t="n">
-        <v>93958</v>
+        <v>42522</v>
       </c>
       <c r="E1811" t="inlineStr">
         <is>
-          <t>i yam what i yam  muffins</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -45802,11 +45802,11 @@
         </is>
       </c>
       <c r="D1815" t="n">
-        <v>84797</v>
+        <v>71635</v>
       </c>
       <c r="E1815" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -45827,11 +45827,11 @@
         </is>
       </c>
       <c r="D1816" t="n">
-        <v>71635</v>
+        <v>84797</v>
       </c>
       <c r="E1816" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -46127,11 +46127,11 @@
         </is>
       </c>
       <c r="D1828" t="n">
-        <v>38798</v>
+        <v>52804</v>
       </c>
       <c r="E1828" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -46152,11 +46152,11 @@
         </is>
       </c>
       <c r="D1829" t="n">
-        <v>52804</v>
+        <v>26995</v>
       </c>
       <c r="E1829" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -46202,11 +46202,11 @@
         </is>
       </c>
       <c r="D1831" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E1831" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -46427,11 +46427,11 @@
         </is>
       </c>
       <c r="D1840" t="n">
-        <v>93959</v>
+        <v>26835</v>
       </c>
       <c r="E1840" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -46452,11 +46452,11 @@
         </is>
       </c>
       <c r="D1841" t="n">
-        <v>26835</v>
+        <v>75452</v>
       </c>
       <c r="E1841" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -46752,11 +46752,11 @@
         </is>
       </c>
       <c r="D1853" t="n">
-        <v>26835</v>
+        <v>30300</v>
       </c>
       <c r="E1853" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -46777,11 +46777,11 @@
         </is>
       </c>
       <c r="D1854" t="n">
-        <v>30300</v>
+        <v>26835</v>
       </c>
       <c r="E1854" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -46802,11 +46802,11 @@
         </is>
       </c>
       <c r="D1855" t="n">
-        <v>71635</v>
+        <v>25775</v>
       </c>
       <c r="E1855" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -46827,11 +46827,11 @@
         </is>
       </c>
       <c r="D1856" t="n">
-        <v>35653</v>
+        <v>71635</v>
       </c>
       <c r="E1856" t="inlineStr">
         <is>
-          <t>make it your way  shortcakes</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -46877,11 +46877,11 @@
         </is>
       </c>
       <c r="D1858" t="n">
-        <v>38798</v>
+        <v>25775</v>
       </c>
       <c r="E1858" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -46927,11 +46927,11 @@
         </is>
       </c>
       <c r="D1860" t="n">
-        <v>25775</v>
+        <v>26995</v>
       </c>
       <c r="E1860" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -46952,11 +46952,11 @@
         </is>
       </c>
       <c r="D1861" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E1861" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -47077,11 +47077,11 @@
         </is>
       </c>
       <c r="D1866" t="n">
-        <v>83133</v>
+        <v>30300</v>
       </c>
       <c r="E1866" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -47177,11 +47177,11 @@
         </is>
       </c>
       <c r="D1870" t="n">
-        <v>93959</v>
+        <v>61973</v>
       </c>
       <c r="E1870" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>to your health  muffins</t>
         </is>
       </c>
     </row>
@@ -48002,11 +48002,11 @@
         </is>
       </c>
       <c r="D1903" t="n">
-        <v>25274</v>
+        <v>24701</v>
       </c>
       <c r="E1903" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -48027,11 +48027,11 @@
         </is>
       </c>
       <c r="D1904" t="n">
-        <v>54272</v>
+        <v>25274</v>
       </c>
       <c r="E1904" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -48052,11 +48052,11 @@
         </is>
       </c>
       <c r="D1905" t="n">
-        <v>81185</v>
+        <v>54272</v>
       </c>
       <c r="E1905" t="inlineStr">
         <is>
-          <t>mock a mole   low fat guacamole</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -48077,11 +48077,11 @@
         </is>
       </c>
       <c r="D1906" t="n">
-        <v>24701</v>
+        <v>81185</v>
       </c>
       <c r="E1906" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>mock a mole   low fat guacamole</t>
         </is>
       </c>
     </row>
@@ -48152,11 +48152,11 @@
         </is>
       </c>
       <c r="D1909" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E1909" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -48177,11 +48177,11 @@
         </is>
       </c>
       <c r="D1910" t="n">
-        <v>23850</v>
+        <v>54272</v>
       </c>
       <c r="E1910" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -48202,11 +48202,11 @@
         </is>
       </c>
       <c r="D1911" t="n">
-        <v>84797</v>
+        <v>25775</v>
       </c>
       <c r="E1911" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -48277,11 +48277,11 @@
         </is>
       </c>
       <c r="D1914" t="n">
-        <v>43164</v>
+        <v>23850</v>
       </c>
       <c r="E1914" t="inlineStr">
         <is>
-          <t>mr  grant you took half veal prince orloff</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -48302,11 +48302,11 @@
         </is>
       </c>
       <c r="D1915" t="n">
-        <v>42522</v>
+        <v>43164</v>
       </c>
       <c r="E1915" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>mr  grant you took half veal prince orloff</t>
         </is>
       </c>
     </row>
@@ -48327,11 +48327,11 @@
         </is>
       </c>
       <c r="D1916" t="n">
-        <v>23850</v>
+        <v>42522</v>
       </c>
       <c r="E1916" t="inlineStr">
         <is>
-          <t>cream  of cauliflower soup  vegan</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -48352,11 +48352,11 @@
         </is>
       </c>
       <c r="D1917" t="n">
-        <v>47366</v>
+        <v>25775</v>
       </c>
       <c r="E1917" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -48377,11 +48377,11 @@
         </is>
       </c>
       <c r="D1918" t="n">
-        <v>83133</v>
+        <v>47366</v>
       </c>
       <c r="E1918" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -48402,11 +48402,11 @@
         </is>
       </c>
       <c r="D1919" t="n">
-        <v>25775</v>
+        <v>83133</v>
       </c>
       <c r="E1919" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -49452,11 +49452,11 @@
         </is>
       </c>
       <c r="D1961" t="n">
-        <v>42570</v>
+        <v>107699</v>
       </c>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -49477,11 +49477,11 @@
         </is>
       </c>
       <c r="D1962" t="n">
-        <v>35964</v>
+        <v>107699</v>
       </c>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -49502,11 +49502,11 @@
         </is>
       </c>
       <c r="D1963" t="n">
-        <v>107699</v>
+        <v>35964</v>
       </c>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>rich  hot fudge cake</t>
         </is>
       </c>
     </row>
@@ -49627,11 +49627,11 @@
         </is>
       </c>
       <c r="D1968" t="n">
-        <v>62368</v>
+        <v>107699</v>
       </c>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -49652,11 +49652,11 @@
         </is>
       </c>
       <c r="D1969" t="n">
-        <v>63793</v>
+        <v>62368</v>
       </c>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -49677,11 +49677,11 @@
         </is>
       </c>
       <c r="D1970" t="n">
-        <v>22526</v>
+        <v>63793</v>
       </c>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -49702,11 +49702,11 @@
         </is>
       </c>
       <c r="D1971" t="n">
-        <v>107699</v>
+        <v>22526</v>
       </c>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>land of nod  cinnamon buns</t>
         </is>
       </c>
     </row>
@@ -50852,11 +50852,11 @@
         </is>
       </c>
       <c r="D2017" t="n">
-        <v>52804</v>
+        <v>107699</v>
       </c>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -50877,11 +50877,11 @@
         </is>
       </c>
       <c r="D2018" t="n">
-        <v>107699</v>
+        <v>52804</v>
       </c>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -51902,11 +51902,11 @@
         </is>
       </c>
       <c r="D2059" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E2059" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -51927,11 +51927,11 @@
         </is>
       </c>
       <c r="D2060" t="n">
-        <v>62368</v>
+        <v>38276</v>
       </c>
       <c r="E2060" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -51952,11 +51952,11 @@
         </is>
       </c>
       <c r="D2061" t="n">
-        <v>39363</v>
+        <v>35653</v>
       </c>
       <c r="E2061" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -52227,11 +52227,11 @@
         </is>
       </c>
       <c r="D2072" t="n">
-        <v>71635</v>
+        <v>71457</v>
       </c>
       <c r="E2072" t="inlineStr">
         <is>
-          <t>no bake  cookie crumble cheesecake</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -52252,11 +52252,11 @@
         </is>
       </c>
       <c r="D2073" t="n">
-        <v>62368</v>
+        <v>71635</v>
       </c>
       <c r="E2073" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -52277,11 +52277,11 @@
         </is>
       </c>
       <c r="D2074" t="n">
-        <v>71457</v>
+        <v>62368</v>
       </c>
       <c r="E2074" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -52427,11 +52427,11 @@
         </is>
       </c>
       <c r="D2080" t="n">
-        <v>107699</v>
+        <v>71457</v>
       </c>
       <c r="E2080" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -52452,11 +52452,11 @@
         </is>
       </c>
       <c r="D2081" t="n">
-        <v>26995</v>
+        <v>107699</v>
       </c>
       <c r="E2081" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>deep fried dessert thingys</t>
         </is>
       </c>
     </row>
@@ -52627,11 +52627,11 @@
         </is>
       </c>
       <c r="D2088" t="n">
-        <v>54100</v>
+        <v>71457</v>
       </c>
       <c r="E2088" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -52652,11 +52652,11 @@
         </is>
       </c>
       <c r="D2089" t="n">
-        <v>35964</v>
+        <v>54100</v>
       </c>
       <c r="E2089" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -52677,11 +52677,11 @@
         </is>
       </c>
       <c r="D2090" t="n">
-        <v>62368</v>
+        <v>38276</v>
       </c>
       <c r="E2090" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -52702,11 +52702,11 @@
         </is>
       </c>
       <c r="D2091" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E2091" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -53502,11 +53502,11 @@
         </is>
       </c>
       <c r="D2123" t="n">
-        <v>25274</v>
+        <v>60219</v>
       </c>
       <c r="E2123" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -53527,11 +53527,11 @@
         </is>
       </c>
       <c r="D2124" t="n">
-        <v>60219</v>
+        <v>25274</v>
       </c>
       <c r="E2124" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>aww  marinated olives</t>
         </is>
       </c>
     </row>
@@ -53552,11 +53552,11 @@
         </is>
       </c>
       <c r="D2125" t="n">
-        <v>54100</v>
+        <v>32169</v>
       </c>
       <c r="E2125" t="inlineStr">
         <is>
-          <t>grilled  venison burgers</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -53577,11 +53577,11 @@
         </is>
       </c>
       <c r="D2126" t="n">
-        <v>107229</v>
+        <v>54100</v>
       </c>
       <c r="E2126" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -53652,11 +53652,11 @@
         </is>
       </c>
       <c r="D2129" t="n">
-        <v>49262</v>
+        <v>32169</v>
       </c>
       <c r="E2129" t="inlineStr">
         <is>
-          <t>easiest ever  hollandaise sauce</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -53677,11 +53677,11 @@
         </is>
       </c>
       <c r="D2130" t="n">
-        <v>107229</v>
+        <v>49262</v>
       </c>
       <c r="E2130" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>easiest ever  hollandaise sauce</t>
         </is>
       </c>
     </row>
@@ -53702,11 +53702,11 @@
         </is>
       </c>
       <c r="D2131" t="n">
-        <v>32169</v>
+        <v>107229</v>
       </c>
       <c r="E2131" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -53727,11 +53727,11 @@
         </is>
       </c>
       <c r="D2132" t="n">
-        <v>107229</v>
+        <v>32169</v>
       </c>
       <c r="E2132" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -53752,11 +53752,11 @@
         </is>
       </c>
       <c r="D2133" t="n">
-        <v>32169</v>
+        <v>107229</v>
       </c>
       <c r="E2133" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>open sesame  noodles</t>
         </is>
       </c>
     </row>
@@ -53877,11 +53877,11 @@
         </is>
       </c>
       <c r="D2138" t="n">
-        <v>33606</v>
+        <v>30300</v>
       </c>
       <c r="E2138" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -53902,11 +53902,11 @@
         </is>
       </c>
       <c r="D2139" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E2139" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -53927,11 +53927,11 @@
         </is>
       </c>
       <c r="D2140" t="n">
-        <v>31490</v>
+        <v>32169</v>
       </c>
       <c r="E2140" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -53952,11 +53952,11 @@
         </is>
       </c>
       <c r="D2141" t="n">
-        <v>30300</v>
+        <v>31490</v>
       </c>
       <c r="E2141" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -54027,11 +54027,11 @@
         </is>
       </c>
       <c r="D2144" t="n">
-        <v>83950</v>
+        <v>60219</v>
       </c>
       <c r="E2144" t="inlineStr">
         <is>
-          <t>real  italian bolognese sauce</t>
+          <t>mexican pasta</t>
         </is>
       </c>
     </row>
@@ -54052,11 +54052,11 @@
         </is>
       </c>
       <c r="D2145" t="n">
-        <v>60219</v>
+        <v>83950</v>
       </c>
       <c r="E2145" t="inlineStr">
         <is>
-          <t>mexican pasta</t>
+          <t>real  italian bolognese sauce</t>
         </is>
       </c>
     </row>
@@ -55402,11 +55402,11 @@
         </is>
       </c>
       <c r="D2199" t="n">
-        <v>35173</v>
+        <v>111875</v>
       </c>
       <c r="E2199" t="inlineStr">
         <is>
-          <t>italian  gut busters</t>
+          <t>the elvis  smoothie</t>
         </is>
       </c>
     </row>
@@ -55427,11 +55427,11 @@
         </is>
       </c>
       <c r="D2200" t="n">
-        <v>44895</v>
+        <v>35173</v>
       </c>
       <c r="E2200" t="inlineStr">
         <is>
-          <t>symphony  brownies</t>
+          <t>italian  gut busters</t>
         </is>
       </c>
     </row>
@@ -55452,11 +55452,11 @@
         </is>
       </c>
       <c r="D2201" t="n">
-        <v>108414</v>
+        <v>44895</v>
       </c>
       <c r="E2201" t="inlineStr">
         <is>
-          <t>jiffy  roasted corn and jalapeno cornbread</t>
+          <t>symphony  brownies</t>
         </is>
       </c>
     </row>
@@ -56377,11 +56377,11 @@
         </is>
       </c>
       <c r="D2238" t="n">
-        <v>27087</v>
+        <v>39947</v>
       </c>
       <c r="E2238" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>sugared grapes</t>
         </is>
       </c>
     </row>
@@ -56402,11 +56402,11 @@
         </is>
       </c>
       <c r="D2239" t="n">
-        <v>39947</v>
+        <v>27087</v>
       </c>
       <c r="E2239" t="inlineStr">
         <is>
-          <t>sugared grapes</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -56652,11 +56652,11 @@
         </is>
       </c>
       <c r="D2249" t="n">
-        <v>30300</v>
+        <v>71635</v>
       </c>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>no bake  cookie crumble cheesecake</t>
         </is>
       </c>
     </row>
@@ -56677,11 +56677,11 @@
         </is>
       </c>
       <c r="D2250" t="n">
-        <v>39363</v>
+        <v>30300</v>
       </c>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>munch without guilt  tomatoes</t>
         </is>
       </c>
     </row>
@@ -56702,11 +56702,11 @@
         </is>
       </c>
       <c r="D2251" t="n">
-        <v>84797</v>
+        <v>39363</v>
       </c>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -57627,11 +57627,11 @@
         </is>
       </c>
       <c r="D2288" t="n">
-        <v>103948</v>
+        <v>31490</v>
       </c>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>smells like sunday  chicken fricassee with meatballs</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -57652,11 +57652,11 @@
         </is>
       </c>
       <c r="D2289" t="n">
-        <v>39363</v>
+        <v>103948</v>
       </c>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>smells like sunday  chicken fricassee with meatballs</t>
         </is>
       </c>
     </row>
@@ -57677,11 +57677,11 @@
         </is>
       </c>
       <c r="D2290" t="n">
-        <v>31490</v>
+        <v>25775</v>
       </c>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -57702,11 +57702,11 @@
         </is>
       </c>
       <c r="D2291" t="n">
-        <v>25775</v>
+        <v>39363</v>
       </c>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>how i got my family to eat spinach  spinach casserole</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -57752,11 +57752,11 @@
         </is>
       </c>
       <c r="D2293" t="n">
-        <v>22526</v>
+        <v>31490</v>
       </c>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>land of nod  cinnamon buns</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -57777,11 +57777,11 @@
         </is>
       </c>
       <c r="D2294" t="n">
-        <v>71457</v>
+        <v>22526</v>
       </c>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>land of nod  cinnamon buns</t>
         </is>
       </c>
     </row>
@@ -57802,11 +57802,11 @@
         </is>
       </c>
       <c r="D2295" t="n">
-        <v>107229</v>
+        <v>71457</v>
       </c>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>open sesame  noodles</t>
+          <t>rise and shine  german fruit pancake</t>
         </is>
       </c>
     </row>
@@ -57827,11 +57827,11 @@
         </is>
       </c>
       <c r="D2296" t="n">
-        <v>64045</v>
+        <v>25775</v>
       </c>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>how i got my family to eat spinach  spinach casserole</t>
         </is>
       </c>
     </row>
@@ -57952,11 +57952,11 @@
         </is>
       </c>
       <c r="D2301" t="n">
-        <v>107699</v>
+        <v>31490</v>
       </c>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>deep fried dessert thingys</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -57977,11 +57977,11 @@
         </is>
       </c>
       <c r="D2302" t="n">
-        <v>63793</v>
+        <v>31490</v>
       </c>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>tide me over   indian chaat  simple veggie salad</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -58002,11 +58002,11 @@
         </is>
       </c>
       <c r="D2303" t="n">
-        <v>42570</v>
+        <v>63793</v>
       </c>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -58027,11 +58027,11 @@
         </is>
       </c>
       <c r="D2304" t="n">
-        <v>31490</v>
+        <v>42570</v>
       </c>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -58202,11 +58202,11 @@
         </is>
       </c>
       <c r="D2311" t="n">
-        <v>95926</v>
+        <v>87098</v>
       </c>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -59027,11 +59027,11 @@
         </is>
       </c>
       <c r="D2344" t="n">
-        <v>27087</v>
+        <v>112959</v>
       </c>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>get the sensation  brownies</t>
+          <t>sour cream  avocado dip  vegan</t>
         </is>
       </c>
     </row>
@@ -59052,11 +59052,11 @@
         </is>
       </c>
       <c r="D2345" t="n">
-        <v>112959</v>
+        <v>27087</v>
       </c>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -59152,11 +59152,11 @@
         </is>
       </c>
       <c r="D2349" t="n">
-        <v>54272</v>
+        <v>23850</v>
       </c>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>fool the meat eaters  chili</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -59177,11 +59177,11 @@
         </is>
       </c>
       <c r="D2350" t="n">
-        <v>42570</v>
+        <v>54272</v>
       </c>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -59202,11 +59202,11 @@
         </is>
       </c>
       <c r="D2351" t="n">
-        <v>8559</v>
+        <v>42570</v>
       </c>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -59577,11 +59577,11 @@
         </is>
       </c>
       <c r="D2366" t="n">
-        <v>90921</v>
+        <v>23850</v>
       </c>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>cream  of cauliflower soup  vegan</t>
         </is>
       </c>
     </row>
@@ -60527,11 +60527,11 @@
         </is>
       </c>
       <c r="D2404" t="n">
-        <v>33606</v>
+        <v>87098</v>
       </c>
       <c r="E2404" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -60552,11 +60552,11 @@
         </is>
       </c>
       <c r="D2405" t="n">
-        <v>32169</v>
+        <v>33606</v>
       </c>
       <c r="E2405" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>italian sandwich  pasta salad</t>
         </is>
       </c>
     </row>
@@ -60577,11 +60577,11 @@
         </is>
       </c>
       <c r="D2406" t="n">
-        <v>90921</v>
+        <v>32169</v>
       </c>
       <c r="E2406" t="inlineStr">
         <is>
-          <t>i stole the idea from mirj  sesame noodles</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -60952,11 +60952,11 @@
         </is>
       </c>
       <c r="D2421" t="n">
-        <v>112959</v>
+        <v>32169</v>
       </c>
       <c r="E2421" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
